--- a/Code/Results/Cases/Case_4_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.089876625019372</v>
+        <v>2.003343645993482</v>
       </c>
       <c r="C2">
-        <v>0.4239833746684951</v>
+        <v>0.4297108598773036</v>
       </c>
       <c r="D2">
-        <v>0.35659054213302</v>
+        <v>0.5638575298801101</v>
       </c>
       <c r="E2">
-        <v>0.1068627298858189</v>
+        <v>0.1855828576089635</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008702050857812733</v>
+        <v>0.002696976618000235</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03193608532025038</v>
+        <v>0.06684150712439418</v>
       </c>
       <c r="K2">
-        <v>2.422058303315822</v>
+        <v>2.353406400852435</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7012322232142978</v>
+        <v>0.8176558072228417</v>
       </c>
       <c r="N2">
-        <v>5.1779673839834</v>
+        <v>6.107543588151685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.856263909104285</v>
+        <v>1.955813302402845</v>
       </c>
       <c r="C3">
-        <v>0.3773020664766307</v>
+        <v>0.420724349350138</v>
       </c>
       <c r="D3">
-        <v>0.328000742468106</v>
+        <v>0.5602427652440269</v>
       </c>
       <c r="E3">
-        <v>0.09916040942248472</v>
+        <v>0.1848138450510497</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008800977264536042</v>
+        <v>0.002702845023073719</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03024057237600175</v>
+        <v>0.06681583488865073</v>
       </c>
       <c r="K3">
-        <v>2.15229063580523</v>
+        <v>2.29921239858686</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6299455443448991</v>
+        <v>0.804826314824453</v>
       </c>
       <c r="N3">
-        <v>4.947894926207937</v>
+        <v>6.028648744157408</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.716614567136475</v>
+        <v>1.927814312756595</v>
       </c>
       <c r="C4">
-        <v>0.3494827762521879</v>
+        <v>0.4154621514965413</v>
       </c>
       <c r="D4">
-        <v>0.3110763690792453</v>
+        <v>0.5582932737252122</v>
       </c>
       <c r="E4">
-        <v>0.09461681696124913</v>
+        <v>0.1844258204972569</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008863234710361212</v>
+        <v>0.002706635370396706</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02925152523964769</v>
+        <v>0.06682657586843277</v>
       </c>
       <c r="K4">
-        <v>1.991143316917402</v>
+        <v>2.267330988947634</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5874726158555958</v>
+        <v>0.7974030618743839</v>
       </c>
       <c r="N4">
-        <v>4.810010252331153</v>
+        <v>5.980628484069626</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.660554928498442</v>
+        <v>1.916701440399038</v>
       </c>
       <c r="C5">
-        <v>0.3383346440832611</v>
+        <v>0.4133817592172591</v>
       </c>
       <c r="D5">
-        <v>0.3043237021212946</v>
+        <v>0.5575666526629703</v>
       </c>
       <c r="E5">
-        <v>0.09280795292119137</v>
+        <v>0.1842888399981106</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008889007791520341</v>
+        <v>0.002708227189086517</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02886056327544395</v>
+        <v>0.06683761572539737</v>
       </c>
       <c r="K5">
-        <v>1.926479684524452</v>
+        <v>2.254688332927401</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5704571252267456</v>
+        <v>0.7944919203135825</v>
       </c>
       <c r="N5">
-        <v>4.754583083809933</v>
+        <v>5.96116463182139</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.651294645182475</v>
+        <v>1.914874062554333</v>
       </c>
       <c r="C6">
-        <v>0.3364942388205918</v>
+        <v>0.4130401692226542</v>
       </c>
       <c r="D6">
-        <v>0.3032107410987521</v>
+        <v>0.5574500912996001</v>
       </c>
       <c r="E6">
-        <v>0.09251006039787768</v>
+        <v>0.1842673709508844</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008893312304245455</v>
+        <v>0.002708494366505105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02879634672748921</v>
+        <v>0.0668398512579067</v>
       </c>
       <c r="K6">
-        <v>1.915799630685143</v>
+        <v>2.252610089472682</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5676484592309166</v>
+        <v>0.7940153979734745</v>
       </c>
       <c r="N6">
-        <v>4.745423030532464</v>
+        <v>5.957938968551019</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.715855222508026</v>
+        <v>1.927663239669897</v>
       </c>
       <c r="C7">
-        <v>0.3493316951941665</v>
+        <v>0.4154338358281962</v>
       </c>
       <c r="D7">
-        <v>0.310984734476861</v>
+        <v>0.5582831997880788</v>
       </c>
       <c r="E7">
-        <v>0.0945922541781492</v>
+        <v>0.1844238875473607</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008863580638526914</v>
+        <v>0.002706656646802432</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02924620491644703</v>
+        <v>0.0668266977804528</v>
       </c>
       <c r="K7">
-        <v>1.990267326487299</v>
+        <v>2.267159073084429</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5872419966910272</v>
+        <v>0.7973633404338472</v>
       </c>
       <c r="N7">
-        <v>4.80925976804329</v>
+        <v>5.980365565089414</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.008474494536017</v>
+        <v>1.986708647187243</v>
       </c>
       <c r="C8">
-        <v>0.4076977416752641</v>
+        <v>0.4265591051818092</v>
       </c>
       <c r="D8">
-        <v>0.3465930608670362</v>
+        <v>0.5625550722033523</v>
       </c>
       <c r="E8">
-        <v>0.1041659100366168</v>
+        <v>0.1853002243758191</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008735859453070999</v>
+        <v>0.002698961308174886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03134005100409709</v>
+        <v>0.06682715315174548</v>
       </c>
       <c r="K8">
-        <v>2.328031898648192</v>
+        <v>2.334430224011186</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6763620477607901</v>
+        <v>0.8131377625520742</v>
       </c>
       <c r="N8">
-        <v>5.097881148520372</v>
+        <v>6.08025241922897</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.617645298076866</v>
+        <v>2.111951920610466</v>
       </c>
       <c r="C9">
-        <v>0.5300396627587531</v>
+        <v>0.4504173006019414</v>
       </c>
       <c r="D9">
-        <v>0.4221380919888986</v>
+        <v>0.573079248891645</v>
       </c>
       <c r="E9">
-        <v>0.1246151482783233</v>
+        <v>0.187687600024006</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008496356188046502</v>
+        <v>0.002685347834063514</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03590899408172277</v>
+        <v>0.06703850742852779</v>
       </c>
       <c r="K9">
-        <v>3.032299780521328</v>
+        <v>2.477475668405418</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8631226156252865</v>
+        <v>0.8476907582222921</v>
       </c>
       <c r="N9">
-        <v>5.695134302755264</v>
+        <v>6.279539017560751</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.095104103993037</v>
+        <v>2.209821354979965</v>
       </c>
       <c r="C10">
-        <v>0.626633796954934</v>
+        <v>0.4692124182340933</v>
       </c>
       <c r="D10">
-        <v>0.4822656369539402</v>
+        <v>0.5821287765295153</v>
       </c>
       <c r="E10">
-        <v>0.1409807768189175</v>
+        <v>0.1898515098050488</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008325387082722478</v>
+        <v>0.002676235704824864</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03962771840932078</v>
+        <v>0.06732244454240188</v>
       </c>
       <c r="K10">
-        <v>3.585228169376649</v>
+        <v>2.589462677704375</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.010346881215632</v>
+        <v>0.8753101572821649</v>
       </c>
       <c r="N10">
-        <v>6.160009514816466</v>
+        <v>6.42813740137268</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.320998048571425</v>
+        <v>2.255636122203384</v>
       </c>
       <c r="C11">
-        <v>0.6725364985474585</v>
+        <v>0.4780428052752654</v>
       </c>
       <c r="D11">
-        <v>0.5109224828337062</v>
+        <v>0.5865337327015254</v>
       </c>
       <c r="E11">
-        <v>0.1488013483520518</v>
+        <v>0.1909254505886224</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008248254874568392</v>
+        <v>0.002672281246678882</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04141901616430843</v>
+        <v>0.06747964125212391</v>
       </c>
       <c r="K11">
-        <v>3.847095294557789</v>
+        <v>2.641929737119938</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.08020598884611</v>
+        <v>0.8883660834804417</v>
       </c>
       <c r="N11">
-        <v>6.378985413778935</v>
+        <v>6.49623613297166</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.40800322988764</v>
+        <v>2.273172429197245</v>
       </c>
       <c r="C12">
-        <v>0.6902502394115686</v>
+        <v>0.4814273296323393</v>
       </c>
       <c r="D12">
-        <v>0.5219909501672362</v>
+        <v>0.5882433697153431</v>
       </c>
       <c r="E12">
-        <v>0.1518250679212123</v>
+        <v>0.1913450391980263</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008219096760909833</v>
+        <v>0.002670811041439104</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04211371724139568</v>
+        <v>0.06754320463883445</v>
       </c>
       <c r="K12">
-        <v>3.94800053373865</v>
+        <v>2.662018514745114</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.107144317757594</v>
+        <v>0.8933811729324788</v>
       </c>
       <c r="N12">
-        <v>6.463162823677067</v>
+        <v>6.52209693001538</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.389196248773658</v>
+        <v>2.269387323522324</v>
       </c>
       <c r="C13">
-        <v>0.6864196629160517</v>
+        <v>0.4806965985965235</v>
       </c>
       <c r="D13">
-        <v>0.519597007101396</v>
+        <v>0.5878733177185893</v>
       </c>
       <c r="E13">
-        <v>0.1511709439025495</v>
+        <v>0.1912540985766817</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000822537498653686</v>
+        <v>0.002671126466597923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04196333669944252</v>
+        <v>0.06752933551578977</v>
       </c>
       <c r="K13">
-        <v>3.926186836827242</v>
+        <v>2.657682198908503</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.101319918227027</v>
+        <v>0.8922979155426773</v>
       </c>
       <c r="N13">
-        <v>6.444974751913037</v>
+        <v>6.516524064355622</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.328125338334189</v>
+        <v>2.25707508471146</v>
       </c>
       <c r="C14">
-        <v>0.6739868676969252</v>
+        <v>0.4783204355678379</v>
       </c>
       <c r="D14">
-        <v>0.511828566024576</v>
+        <v>0.586673551614922</v>
       </c>
       <c r="E14">
-        <v>0.1490488128662086</v>
+        <v>0.1909597114674177</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008245855277748515</v>
+        <v>0.002672159746533309</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04147582862087518</v>
+        <v>0.06748478972231098</v>
       </c>
       <c r="K14">
-        <v>3.855360320788975</v>
+        <v>2.643578021964231</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.082412083984309</v>
+        <v>0.8887772508457559</v>
       </c>
       <c r="N14">
-        <v>6.385884460917111</v>
+        <v>6.498362240050881</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.290915184574715</v>
+        <v>2.249557905918891</v>
       </c>
       <c r="C15">
-        <v>0.6664161699258102</v>
+        <v>0.4768702706011254</v>
       </c>
       <c r="D15">
-        <v>0.5070993364882099</v>
+        <v>0.5859440783067384</v>
       </c>
       <c r="E15">
-        <v>0.1477573159010852</v>
+        <v>0.1907810731379662</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008258405224079064</v>
+        <v>0.002672796205966577</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04117941442838458</v>
+        <v>0.06745802996347905</v>
       </c>
       <c r="K15">
-        <v>3.812212102816659</v>
+        <v>2.63496758691798</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.070895776083809</v>
+        <v>0.8866300121395057</v>
       </c>
       <c r="N15">
-        <v>6.349859215763843</v>
+        <v>6.48724718106962</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.080533941293709</v>
+        <v>2.2068533861883</v>
       </c>
       <c r="C16">
-        <v>0.6236774673460559</v>
+        <v>0.468641001785727</v>
       </c>
       <c r="D16">
-        <v>0.4804214915353953</v>
+        <v>0.5818467134820082</v>
       </c>
       <c r="E16">
-        <v>0.1404779198071573</v>
+        <v>0.1897831301783519</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008330437308705761</v>
+        <v>0.002676497961580855</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03951282608054285</v>
+        <v>0.06731273590101949</v>
       </c>
       <c r="K16">
-        <v>3.568343532747349</v>
+        <v>2.586064622282322</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.005845185169697</v>
+        <v>0.8744668491293695</v>
       </c>
       <c r="N16">
-        <v>6.145864463131574</v>
+        <v>6.423697173060589</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.953841495500455</v>
+        <v>2.180987714010826</v>
       </c>
       <c r="C17">
-        <v>0.597993879950792</v>
+        <v>0.4636646585019264</v>
       </c>
       <c r="D17">
-        <v>0.4644090638111038</v>
+        <v>0.5794070331697583</v>
       </c>
       <c r="E17">
-        <v>0.1361139604039785</v>
+        <v>0.1891938863420286</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008374763011248817</v>
+        <v>0.002678817596729843</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03851731191579688</v>
+        <v>0.06723078615465283</v>
       </c>
       <c r="K17">
-        <v>3.421555913369787</v>
+        <v>2.556455558777486</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9667240736555769</v>
+        <v>0.8671313546344237</v>
       </c>
       <c r="N17">
-        <v>6.022760084061787</v>
+        <v>6.384840434221076</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.881775341922207</v>
+        <v>2.166232134378333</v>
       </c>
       <c r="C18">
-        <v>0.5834026366874809</v>
+        <v>0.4608287693590967</v>
       </c>
       <c r="D18">
-        <v>0.4553199518366853</v>
+        <v>0.5780309203621243</v>
       </c>
       <c r="E18">
-        <v>0.1336387392091041</v>
+        <v>0.1888633974427059</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008400321308142868</v>
+        <v>0.002680169748372765</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03795395736894847</v>
+        <v>0.0671862890136552</v>
       </c>
       <c r="K18">
-        <v>3.338083229531833</v>
+        <v>2.539568522748311</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.944489602898301</v>
+        <v>0.8629584318629142</v>
       </c>
       <c r="N18">
-        <v>5.952647831836742</v>
+        <v>6.362538104096416</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.85750705175667</v>
+        <v>2.161257008196287</v>
       </c>
       <c r="C19">
-        <v>0.5784920420938988</v>
+        <v>0.459873105548354</v>
       </c>
       <c r="D19">
-        <v>0.4522624635688715</v>
+        <v>0.577569647646726</v>
       </c>
       <c r="E19">
-        <v>0.1328064200071459</v>
+        <v>0.1887529462784165</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008408986974912247</v>
+        <v>0.002680630652822216</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0377647443371032</v>
+        <v>0.06717167599915541</v>
       </c>
       <c r="K19">
-        <v>3.309977765654082</v>
+        <v>2.533875430318687</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.937005296289982</v>
+        <v>0.8615534855176605</v>
       </c>
       <c r="N19">
-        <v>5.929023246250864</v>
+        <v>6.354994957745163</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.967243463294039</v>
+        <v>2.183728557553025</v>
       </c>
       <c r="C20">
-        <v>0.6007088463645971</v>
+        <v>0.4641916669970101</v>
       </c>
       <c r="D20">
-        <v>0.4661009126013766</v>
+        <v>0.5796639329234949</v>
       </c>
       <c r="E20">
-        <v>0.136574852679594</v>
+        <v>0.1892557398105517</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008370038197240427</v>
+        <v>0.002678568810284489</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03862231601816646</v>
+        <v>0.06723923676521792</v>
       </c>
       <c r="K20">
-        <v>3.437081066040832</v>
+        <v>2.55959265057777</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.970860484410629</v>
+        <v>0.8679074401004314</v>
       </c>
       <c r="N20">
-        <v>6.035791711198897</v>
+        <v>6.388971922733163</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.346021750443015</v>
+        <v>2.260686395697974</v>
       </c>
       <c r="C21">
-        <v>0.6776292565923541</v>
+        <v>0.4790172664075669</v>
       </c>
       <c r="D21">
-        <v>0.5141042092684813</v>
+        <v>0.587024822657952</v>
       </c>
       <c r="E21">
-        <v>0.1496703735811948</v>
+        <v>0.1910458294558026</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008239838724665428</v>
+        <v>0.00267185550838988</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04161855928074942</v>
+        <v>0.06749776430987353</v>
       </c>
       <c r="K21">
-        <v>3.876114286534687</v>
+        <v>2.647714759957182</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.087952029190077</v>
+        <v>0.8898094228320375</v>
       </c>
       <c r="N21">
-        <v>6.403205083847638</v>
+        <v>6.503694808695798</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.602232107415091</v>
+        <v>2.312074825481488</v>
       </c>
       <c r="C22">
-        <v>0.7298613972677686</v>
+        <v>0.4889437407385628</v>
       </c>
       <c r="D22">
-        <v>0.5467572909945204</v>
+        <v>0.5920779846434812</v>
       </c>
       <c r="E22">
-        <v>0.1585965635456787</v>
+        <v>0.1922910244261189</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008155014095019286</v>
+        <v>0.002667626810415767</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04367340992316571</v>
+        <v>0.06769025704792853</v>
       </c>
       <c r="K22">
-        <v>4.173348241137205</v>
+        <v>2.706594463588374</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.167340384885065</v>
+        <v>0.904538208673344</v>
       </c>
       <c r="N22">
-        <v>6.650753613121992</v>
+        <v>6.579100625038393</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.464616516205922</v>
+        <v>2.284547510725076</v>
       </c>
       <c r="C23">
-        <v>0.7017864116929218</v>
+        <v>0.4836239905190212</v>
       </c>
       <c r="D23">
-        <v>0.5292017868819983</v>
+        <v>0.5893587964122275</v>
       </c>
       <c r="E23">
-        <v>0.1537958190475379</v>
+        <v>0.191619542832079</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008200277653471633</v>
+        <v>0.002669869265641153</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04256709557272842</v>
+        <v>0.06758536516316482</v>
       </c>
       <c r="K23">
-        <v>4.013671650180356</v>
+        <v>2.675050992460683</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.124681761352193</v>
+        <v>0.8966391149981234</v>
       </c>
       <c r="N23">
-        <v>6.517887595811828</v>
+        <v>6.538815545571424</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.96118204782033</v>
+        <v>2.182489064269532</v>
       </c>
       <c r="C24">
-        <v>0.599480869855114</v>
+        <v>0.463953328372213</v>
       </c>
       <c r="D24">
-        <v>0.4653356665814101</v>
+        <v>0.5795477060376868</v>
       </c>
       <c r="E24">
-        <v>0.1363663789883347</v>
+        <v>0.1892277500842106</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008372174049538434</v>
+        <v>0.002678681228737325</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03857481584400801</v>
+        <v>0.067235408093552</v>
       </c>
       <c r="K24">
-        <v>3.430059305581494</v>
+        <v>2.558173949099341</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9689896183949145</v>
+        <v>0.867556433747481</v>
       </c>
       <c r="N24">
-        <v>6.029898063363419</v>
+        <v>6.387103961856582</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.448264773262281</v>
+        <v>2.077048950332653</v>
       </c>
       <c r="C25">
-        <v>0.4959170773693984</v>
+        <v>0.4437422244332083</v>
       </c>
       <c r="D25">
-        <v>0.400980034804661</v>
+        <v>0.5700014611144297</v>
       </c>
       <c r="E25">
-        <v>0.1188730815786485</v>
+        <v>0.1869699274756655</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008560137187599025</v>
+        <v>0.002688873625100598</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03461579039389306</v>
+        <v>0.06695876412478796</v>
       </c>
       <c r="K25">
-        <v>2.8363375254103</v>
+        <v>2.437575817537635</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8110564847807638</v>
+        <v>0.8379530403461715</v>
       </c>
       <c r="N25">
-        <v>5.52954123916237</v>
+        <v>6.225251032835388</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.003343645993482</v>
+        <v>2.089876625019372</v>
       </c>
       <c r="C2">
-        <v>0.4297108598773036</v>
+        <v>0.4239833746676709</v>
       </c>
       <c r="D2">
-        <v>0.5638575298801101</v>
+        <v>0.3565905421331195</v>
       </c>
       <c r="E2">
-        <v>0.1855828576089635</v>
+        <v>0.1068627298858189</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002696976618000235</v>
+        <v>0.0008702050857820609</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06684150712439418</v>
+        <v>0.03193608532017578</v>
       </c>
       <c r="K2">
-        <v>2.353406400852435</v>
+        <v>2.422058303315993</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8176558072228417</v>
+        <v>0.7012322232143049</v>
       </c>
       <c r="N2">
-        <v>6.107543588151685</v>
+        <v>5.1779673839834</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.955813302402845</v>
+        <v>1.856263909104115</v>
       </c>
       <c r="C3">
-        <v>0.420724349350138</v>
+        <v>0.3773020664766307</v>
       </c>
       <c r="D3">
-        <v>0.5602427652440269</v>
+        <v>0.3280007424683618</v>
       </c>
       <c r="E3">
-        <v>0.1848138450510497</v>
+        <v>0.09916040942256998</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002702845023073719</v>
+        <v>0.0008800977264554949</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06681583488865073</v>
+        <v>0.03024057237603728</v>
       </c>
       <c r="K3">
-        <v>2.29921239858686</v>
+        <v>2.152290635805514</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.804826314824453</v>
+        <v>0.6299455443448991</v>
       </c>
       <c r="N3">
-        <v>6.028648744157408</v>
+        <v>4.947894926207994</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.927814312756595</v>
+        <v>1.716614567136418</v>
       </c>
       <c r="C4">
-        <v>0.4154621514965413</v>
+        <v>0.3494827762519321</v>
       </c>
       <c r="D4">
-        <v>0.5582932737252122</v>
+        <v>0.3110763690788616</v>
       </c>
       <c r="E4">
-        <v>0.1844258204972569</v>
+        <v>0.09461681696129176</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002706635370396706</v>
+        <v>0.0008863234711047744</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06682657586843277</v>
+        <v>0.02925152523964769</v>
       </c>
       <c r="K4">
-        <v>2.267330988947634</v>
+        <v>1.991143316917345</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7974030618743839</v>
+        <v>0.5874726158555958</v>
       </c>
       <c r="N4">
-        <v>5.980628484069626</v>
+        <v>4.810010252331153</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.916701440399038</v>
+        <v>1.660554928498357</v>
       </c>
       <c r="C5">
-        <v>0.4133817592172591</v>
+        <v>0.3383346440832611</v>
       </c>
       <c r="D5">
-        <v>0.5575666526629703</v>
+        <v>0.3043237021212946</v>
       </c>
       <c r="E5">
-        <v>0.1842888399981106</v>
+        <v>0.09280795292124466</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002708227189086517</v>
+        <v>0.0008889007792238232</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06683761572539737</v>
+        <v>0.02886056327541198</v>
       </c>
       <c r="K5">
-        <v>2.254688332927401</v>
+        <v>1.926479684524452</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7944919203135825</v>
+        <v>0.5704571252267669</v>
       </c>
       <c r="N5">
-        <v>5.96116463182139</v>
+        <v>4.754583083809962</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.914874062554333</v>
+        <v>1.651294645182332</v>
       </c>
       <c r="C6">
-        <v>0.4130401692226542</v>
+        <v>0.3364942388205918</v>
       </c>
       <c r="D6">
-        <v>0.5574500912996001</v>
+        <v>0.3032107410983969</v>
       </c>
       <c r="E6">
-        <v>0.1842673709508844</v>
+        <v>0.09251006039790255</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002708494366505105</v>
+        <v>0.0008893312304231077</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0668398512579067</v>
+        <v>0.02879634672738973</v>
       </c>
       <c r="K6">
-        <v>2.252610089472682</v>
+        <v>1.915799630685143</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7940153979734745</v>
+        <v>0.5676484592309308</v>
       </c>
       <c r="N6">
-        <v>5.957938968551019</v>
+        <v>4.745423030532464</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.927663239669897</v>
+        <v>1.715855222507827</v>
       </c>
       <c r="C7">
-        <v>0.4154338358281962</v>
+        <v>0.3493316951941665</v>
       </c>
       <c r="D7">
-        <v>0.5582831997880788</v>
+        <v>0.3109847344766905</v>
       </c>
       <c r="E7">
-        <v>0.1844238875473607</v>
+        <v>0.0945922541781421</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002706656646802432</v>
+        <v>0.0008863580637774709</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0668266977804528</v>
+        <v>0.02924620491617347</v>
       </c>
       <c r="K7">
-        <v>2.267159073084429</v>
+        <v>1.990267326487299</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7973633404338472</v>
+        <v>0.5872419966910343</v>
       </c>
       <c r="N7">
-        <v>5.980365565089414</v>
+        <v>4.80925976804329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.986708647187243</v>
+        <v>2.00847449453596</v>
       </c>
       <c r="C8">
-        <v>0.4265591051818092</v>
+        <v>0.4076977416752641</v>
       </c>
       <c r="D8">
-        <v>0.5625550722033523</v>
+        <v>0.3465930608668373</v>
       </c>
       <c r="E8">
-        <v>0.1853002243758191</v>
+        <v>0.1041659100365813</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002698961308174886</v>
+        <v>0.0008735859451708174</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06682715315174548</v>
+        <v>0.03134005100399406</v>
       </c>
       <c r="K8">
-        <v>2.334430224011186</v>
+        <v>2.328031898648135</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8131377625520742</v>
+        <v>0.676362047760783</v>
       </c>
       <c r="N8">
-        <v>6.08025241922897</v>
+        <v>5.097881148520401</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.111951920610466</v>
+        <v>2.61764529807698</v>
       </c>
       <c r="C9">
-        <v>0.4504173006019414</v>
+        <v>0.5300396627587816</v>
       </c>
       <c r="D9">
-        <v>0.573079248891645</v>
+        <v>0.422138091988927</v>
       </c>
       <c r="E9">
-        <v>0.187687600024006</v>
+        <v>0.1246151482783304</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002685347834063514</v>
+        <v>0.0008496356188078212</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06703850742852779</v>
+        <v>0.03590899408166237</v>
       </c>
       <c r="K9">
-        <v>2.477475668405418</v>
+        <v>3.032299780521441</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8476907582222921</v>
+        <v>0.8631226156252936</v>
       </c>
       <c r="N9">
-        <v>6.279539017560751</v>
+        <v>5.695134302755235</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.209821354979965</v>
+        <v>3.095104103993151</v>
       </c>
       <c r="C10">
-        <v>0.4692124182340933</v>
+        <v>0.626633796954593</v>
       </c>
       <c r="D10">
-        <v>0.5821287765295153</v>
+        <v>0.4822656369544518</v>
       </c>
       <c r="E10">
-        <v>0.1898515098050488</v>
+        <v>0.1409807768188323</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002676235704824864</v>
+        <v>0.000832538708185694</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06732244454240188</v>
+        <v>0.03962771840929591</v>
       </c>
       <c r="K10">
-        <v>2.589462677704375</v>
+        <v>3.585228169376819</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8753101572821649</v>
+        <v>1.010346881215654</v>
       </c>
       <c r="N10">
-        <v>6.42813740137268</v>
+        <v>6.160009514816522</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.255636122203384</v>
+        <v>3.320998048571482</v>
       </c>
       <c r="C11">
-        <v>0.4780428052752654</v>
+        <v>0.6725364985476858</v>
       </c>
       <c r="D11">
-        <v>0.5865337327015254</v>
+        <v>0.5109224828335641</v>
       </c>
       <c r="E11">
-        <v>0.1909254505886224</v>
+        <v>0.1488013483520341</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002672281246678882</v>
+        <v>0.0008248254874999393</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06747964125212391</v>
+        <v>0.04141901616429067</v>
       </c>
       <c r="K11">
-        <v>2.641929737119938</v>
+        <v>3.847095294557789</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8883660834804417</v>
+        <v>1.080205988846117</v>
       </c>
       <c r="N11">
-        <v>6.49623613297166</v>
+        <v>6.378985413778935</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.273172429197245</v>
+        <v>3.408003229887527</v>
       </c>
       <c r="C12">
-        <v>0.4814273296323393</v>
+        <v>0.690250239411597</v>
       </c>
       <c r="D12">
-        <v>0.5882433697153431</v>
+        <v>0.521990950167293</v>
       </c>
       <c r="E12">
-        <v>0.1913450391980263</v>
+        <v>0.1518250679212336</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002670811041439104</v>
+        <v>0.0008219096760068014</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06754320463883445</v>
+        <v>0.04211371724132462</v>
       </c>
       <c r="K12">
-        <v>2.662018514745114</v>
+        <v>3.948000533738764</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8933811729324788</v>
+        <v>1.107144317757559</v>
       </c>
       <c r="N12">
-        <v>6.52209693001538</v>
+        <v>6.46316282367718</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.269387323522324</v>
+        <v>3.389196248774169</v>
       </c>
       <c r="C13">
-        <v>0.4806965985965235</v>
+        <v>0.6864196629163928</v>
       </c>
       <c r="D13">
-        <v>0.5878733177185893</v>
+        <v>0.5195970071011118</v>
       </c>
       <c r="E13">
-        <v>0.1912540985766817</v>
+        <v>0.1511709439025104</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002671126466597923</v>
+        <v>0.0008225374988931317</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06752933551578977</v>
+        <v>0.04196333669955266</v>
       </c>
       <c r="K13">
-        <v>2.657682198908503</v>
+        <v>3.926186836827128</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8922979155426773</v>
+        <v>1.101319918227006</v>
       </c>
       <c r="N13">
-        <v>6.516524064355622</v>
+        <v>6.444974751913094</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.25707508471146</v>
+        <v>3.328125338334075</v>
       </c>
       <c r="C14">
-        <v>0.4783204355678379</v>
+        <v>0.6739868676965273</v>
       </c>
       <c r="D14">
-        <v>0.586673551614922</v>
+        <v>0.511828566024576</v>
       </c>
       <c r="E14">
-        <v>0.1909597114674177</v>
+        <v>0.1490488128661305</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002672159746533309</v>
+        <v>0.0008245855276864235</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06748478972231098</v>
+        <v>0.04147582862094268</v>
       </c>
       <c r="K14">
-        <v>2.643578021964231</v>
+        <v>3.855360320788861</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8887772508457559</v>
+        <v>1.082412083984295</v>
       </c>
       <c r="N14">
-        <v>6.498362240050881</v>
+        <v>6.385884460916998</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.249557905918891</v>
+        <v>3.290915184574715</v>
       </c>
       <c r="C15">
-        <v>0.4768702706011254</v>
+        <v>0.6664161699254691</v>
       </c>
       <c r="D15">
-        <v>0.5859440783067384</v>
+        <v>0.5070993364881815</v>
       </c>
       <c r="E15">
-        <v>0.1907810731379662</v>
+        <v>0.1477573159010817</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002672796205966577</v>
+        <v>0.0008258405224085767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06745802996347905</v>
+        <v>0.04117941442830286</v>
       </c>
       <c r="K15">
-        <v>2.63496758691798</v>
+        <v>3.812212102816716</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8866300121395057</v>
+        <v>1.070895776083766</v>
       </c>
       <c r="N15">
-        <v>6.48724718106962</v>
+        <v>6.349859215763843</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.2068533861883</v>
+        <v>3.080533941293936</v>
       </c>
       <c r="C16">
-        <v>0.468641001785727</v>
+        <v>0.6236774673462264</v>
       </c>
       <c r="D16">
-        <v>0.5818467134820082</v>
+        <v>0.4804214915350542</v>
       </c>
       <c r="E16">
-        <v>0.1897831301783519</v>
+        <v>0.1404779198071466</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002676497961580855</v>
+        <v>0.0008330437307869247</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06731273590101949</v>
+        <v>0.03951282608064588</v>
       </c>
       <c r="K16">
-        <v>2.586064622282322</v>
+        <v>3.568343532747349</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8744668491293695</v>
+        <v>1.00584518516969</v>
       </c>
       <c r="N16">
-        <v>6.423697173060589</v>
+        <v>6.14586446313163</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.180987714010826</v>
+        <v>2.953841495500228</v>
       </c>
       <c r="C17">
-        <v>0.4636646585019264</v>
+        <v>0.5979938799508204</v>
       </c>
       <c r="D17">
-        <v>0.5794070331697583</v>
+        <v>0.4644090638113596</v>
       </c>
       <c r="E17">
-        <v>0.1891938863420286</v>
+        <v>0.1361139604039074</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002678817596729843</v>
+        <v>0.0008374763008901937</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06723078615465283</v>
+        <v>0.03851731191594254</v>
       </c>
       <c r="K17">
-        <v>2.556455558777486</v>
+        <v>3.421555913369843</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8671313546344237</v>
+        <v>0.9667240736555556</v>
       </c>
       <c r="N17">
-        <v>6.384840434221076</v>
+        <v>6.022760084061815</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.166232134378333</v>
+        <v>2.881775341922037</v>
       </c>
       <c r="C18">
-        <v>0.4608287693590967</v>
+        <v>0.5834026366874809</v>
       </c>
       <c r="D18">
-        <v>0.5780309203621243</v>
+        <v>0.4553199518364579</v>
       </c>
       <c r="E18">
-        <v>0.1888633974427059</v>
+        <v>0.1336387392091112</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002680169748372765</v>
+        <v>0.0008400321308149529</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0671862890136552</v>
+        <v>0.0379539573690586</v>
       </c>
       <c r="K18">
-        <v>2.539568522748311</v>
+        <v>3.338083229531776</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8629584318629142</v>
+        <v>0.9444896028983294</v>
       </c>
       <c r="N18">
-        <v>6.362538104096416</v>
+        <v>5.952647831836714</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.161257008196287</v>
+        <v>2.857507051756556</v>
       </c>
       <c r="C19">
-        <v>0.459873105548354</v>
+        <v>0.5784920420934725</v>
       </c>
       <c r="D19">
-        <v>0.577569647646726</v>
+        <v>0.4522624635688715</v>
       </c>
       <c r="E19">
-        <v>0.1887529462784165</v>
+        <v>0.1328064200071672</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002680630652822216</v>
+        <v>0.0008408986974282863</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06717167599915541</v>
+        <v>0.03776474433716714</v>
       </c>
       <c r="K19">
-        <v>2.533875430318687</v>
+        <v>3.309977765654196</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8615534855176605</v>
+        <v>0.9370052962899749</v>
       </c>
       <c r="N19">
-        <v>6.354994957745163</v>
+        <v>5.929023246250921</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.183728557553025</v>
+        <v>2.967243463294267</v>
       </c>
       <c r="C20">
-        <v>0.4641916669970101</v>
+        <v>0.6007088463646539</v>
       </c>
       <c r="D20">
-        <v>0.5796639329234949</v>
+        <v>0.4661009126015756</v>
       </c>
       <c r="E20">
-        <v>0.1892557398105517</v>
+        <v>0.1365748526795905</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002678568810284489</v>
+        <v>0.0008370038196081354</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06723923676521792</v>
+        <v>0.03862231601817712</v>
       </c>
       <c r="K20">
-        <v>2.55959265057777</v>
+        <v>3.437081066040776</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8679074401004314</v>
+        <v>0.9708604844106077</v>
       </c>
       <c r="N20">
-        <v>6.388971922733163</v>
+        <v>6.035791711198925</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.260686395697974</v>
+        <v>3.346021750443128</v>
       </c>
       <c r="C21">
-        <v>0.4790172664075669</v>
+        <v>0.6776292565925246</v>
       </c>
       <c r="D21">
-        <v>0.587024822657952</v>
+        <v>0.5141042092687087</v>
       </c>
       <c r="E21">
-        <v>0.1910458294558026</v>
+        <v>0.1496703735811913</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00267185550838988</v>
+        <v>0.0008239838724636257</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06749776430987353</v>
+        <v>0.04161855928047942</v>
       </c>
       <c r="K21">
-        <v>2.647714759957182</v>
+        <v>3.876114286534744</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8898094228320375</v>
+        <v>1.087952029190049</v>
       </c>
       <c r="N21">
-        <v>6.503694808695798</v>
+        <v>6.403205083847695</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.312074825481488</v>
+        <v>3.602232107415489</v>
       </c>
       <c r="C22">
-        <v>0.4889437407385628</v>
+        <v>0.7298613972673422</v>
       </c>
       <c r="D22">
-        <v>0.5920779846434812</v>
+        <v>0.546757290994293</v>
       </c>
       <c r="E22">
-        <v>0.1922910244261189</v>
+        <v>0.1585965635455864</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002667626810415767</v>
+        <v>0.0008155014094033831</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06769025704792853</v>
+        <v>0.04367340992313373</v>
       </c>
       <c r="K22">
-        <v>2.706594463588374</v>
+        <v>4.173348241137148</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.904538208673344</v>
+        <v>1.167340384885023</v>
       </c>
       <c r="N22">
-        <v>6.579100625038393</v>
+        <v>6.650753613121992</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.284547510725076</v>
+        <v>3.464616516206036</v>
       </c>
       <c r="C23">
-        <v>0.4836239905190212</v>
+        <v>0.7017864116933481</v>
       </c>
       <c r="D23">
-        <v>0.5893587964122275</v>
+        <v>0.5292017868823677</v>
       </c>
       <c r="E23">
-        <v>0.191619542832079</v>
+        <v>0.1537958190475983</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002669869265641153</v>
+        <v>0.0008200277653391102</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06758536516316482</v>
+        <v>0.042567095572835</v>
       </c>
       <c r="K23">
-        <v>2.675050992460683</v>
+        <v>4.013671650180299</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8966391149981234</v>
+        <v>1.124681761352221</v>
       </c>
       <c r="N23">
-        <v>6.538815545571424</v>
+        <v>6.517887595811771</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.182489064269532</v>
+        <v>2.9611820478205</v>
       </c>
       <c r="C24">
-        <v>0.463953328372213</v>
+        <v>0.5994808698554834</v>
       </c>
       <c r="D24">
-        <v>0.5795477060376868</v>
+        <v>0.4653356665818649</v>
       </c>
       <c r="E24">
-        <v>0.1892277500842106</v>
+        <v>0.1363663789883063</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002678681228737325</v>
+        <v>0.0008372174049551262</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.067235408093552</v>
+        <v>0.03857481584413947</v>
       </c>
       <c r="K24">
-        <v>2.558173949099341</v>
+        <v>3.430059305581551</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.867556433747481</v>
+        <v>0.9689896183949145</v>
       </c>
       <c r="N24">
-        <v>6.387103961856582</v>
+        <v>6.029898063363419</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.077048950332653</v>
+        <v>2.448264773262281</v>
       </c>
       <c r="C25">
-        <v>0.4437422244332083</v>
+        <v>0.4959170773691142</v>
       </c>
       <c r="D25">
-        <v>0.5700014611144297</v>
+        <v>0.4009800348047889</v>
       </c>
       <c r="E25">
-        <v>0.1869699274756655</v>
+        <v>0.1188730815786094</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002688873625100598</v>
+        <v>0.0008560137187003801</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06695876412478796</v>
+        <v>0.03461579039400675</v>
       </c>
       <c r="K25">
-        <v>2.437575817537635</v>
+        <v>2.836337525410357</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8379530403461715</v>
+        <v>0.8110564847807424</v>
       </c>
       <c r="N25">
-        <v>6.225251032835388</v>
+        <v>5.529541239162342</v>
       </c>
       <c r="O25">
         <v>0</v>
